--- a/dataset/sql_datasets/competition.xlsx
+++ b/dataset/sql_datasets/competition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\uni\BD\dataset\sql_datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED33AEA-D9DF-463B-A1D0-73A5C20068D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01849028-0B25-4E23-85E5-7707F47BECF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="28995" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,17 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>idSport</t>
-  </si>
-  <si>
-    <t>startDate</t>
-  </si>
-  <si>
-    <t>endDate</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -361,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C337"/>
+  <dimension ref="A1:C336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A323" workbookViewId="0">
-      <selection activeCell="F339" sqref="F339"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -373,19 +363,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+      <c r="B1" s="1">
+        <v>44402</v>
+      </c>
+      <c r="C1" s="1">
+        <v>44405</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>44402</v>
@@ -396,18 +386,18 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>44402</v>
+        <v>44400</v>
       </c>
       <c r="C3" s="1">
-        <v>44405</v>
+        <v>44408</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>44400</v>
@@ -418,7 +408,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>44400</v>
@@ -429,7 +419,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>44400</v>
@@ -440,7 +430,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>44400</v>
@@ -451,18 +441,18 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>44400</v>
+        <v>44401</v>
       </c>
       <c r="C8" s="1">
-        <v>44408</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>44401</v>
@@ -473,7 +463,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
         <v>44401</v>
@@ -484,7 +474,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1">
         <v>44401</v>
@@ -495,7 +485,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1">
         <v>44401</v>
@@ -506,7 +496,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
         <v>44401</v>
@@ -517,7 +507,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1">
         <v>44401</v>
@@ -528,7 +518,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1">
         <v>44401</v>
@@ -539,7 +529,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1">
         <v>44401</v>
@@ -550,7 +540,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1">
         <v>44401</v>
@@ -561,7 +551,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1">
         <v>44401</v>
@@ -572,7 +562,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1">
         <v>44401</v>
@@ -583,7 +573,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1">
         <v>44401</v>
@@ -594,7 +584,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1">
         <v>44401</v>
@@ -605,18 +595,18 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1">
-        <v>44401</v>
+        <v>44410</v>
       </c>
       <c r="C22" s="1">
-        <v>44411</v>
+        <v>44415</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1">
         <v>44410</v>
@@ -627,18 +617,18 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1">
-        <v>44410</v>
+        <v>44407</v>
       </c>
       <c r="C24" s="1">
-        <v>44415</v>
+        <v>44416</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1">
         <v>44407</v>
@@ -649,7 +639,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1">
         <v>44407</v>
@@ -660,7 +650,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1">
         <v>44407</v>
@@ -671,7 +661,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1">
         <v>44407</v>
@@ -682,7 +672,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1">
         <v>44407</v>
@@ -693,7 +683,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1">
         <v>44407</v>
@@ -704,7 +694,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="1">
         <v>44407</v>
@@ -715,7 +705,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1">
         <v>44407</v>
@@ -726,7 +716,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1">
         <v>44407</v>
@@ -737,7 +727,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1">
         <v>44407</v>
@@ -748,7 +738,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1">
         <v>44407</v>
@@ -759,7 +749,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1">
         <v>44407</v>
@@ -770,7 +760,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="1">
         <v>44407</v>
@@ -781,7 +771,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="1">
         <v>44407</v>
@@ -792,7 +782,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="1">
         <v>44407</v>
@@ -803,7 +793,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="1">
         <v>44407</v>
@@ -814,7 +804,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" s="1">
         <v>44407</v>
@@ -825,7 +815,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" s="1">
         <v>44407</v>
@@ -836,7 +826,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" s="1">
         <v>44407</v>
@@ -847,7 +837,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="1">
         <v>44407</v>
@@ -858,7 +848,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" s="1">
         <v>44407</v>
@@ -869,7 +859,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" s="1">
         <v>44407</v>
@@ -880,7 +870,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" s="1">
         <v>44407</v>
@@ -891,7 +881,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" s="1">
         <v>44407</v>
@@ -902,7 +892,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" s="1">
         <v>44407</v>
@@ -913,7 +903,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" s="1">
         <v>44407</v>
@@ -924,7 +914,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" s="1">
         <v>44407</v>
@@ -935,7 +925,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" s="1">
         <v>44407</v>
@@ -946,7 +936,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" s="1">
         <v>44407</v>
@@ -957,7 +947,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" s="1">
         <v>44407</v>
@@ -968,7 +958,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" s="1">
         <v>44407</v>
@@ -979,7 +969,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" s="1">
         <v>44407</v>
@@ -990,7 +980,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" s="1">
         <v>44407</v>
@@ -1001,7 +991,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" s="1">
         <v>44407</v>
@@ -1012,7 +1002,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" s="1">
         <v>44407</v>
@@ -1023,7 +1013,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" s="1">
         <v>44407</v>
@@ -1034,7 +1024,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61" s="1">
         <v>44407</v>
@@ -1045,7 +1035,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" s="1">
         <v>44407</v>
@@ -1056,7 +1046,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63" s="1">
         <v>44407</v>
@@ -1067,7 +1057,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64" s="1">
         <v>44407</v>
@@ -1078,7 +1068,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65" s="1">
         <v>44407</v>
@@ -1089,7 +1079,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" s="1">
         <v>44407</v>
@@ -1100,7 +1090,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" s="1">
         <v>44407</v>
@@ -1111,7 +1101,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" s="1">
         <v>44407</v>
@@ -1122,7 +1112,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69" s="1">
         <v>44407</v>
@@ -1133,7 +1123,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" s="1">
         <v>44407</v>
@@ -1144,7 +1134,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71" s="1">
         <v>44407</v>
@@ -1155,18 +1145,18 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72" s="1">
-        <v>44407</v>
+        <v>44402</v>
       </c>
       <c r="C72" s="1">
-        <v>44416</v>
+        <v>44410</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73" s="1">
         <v>44402</v>
@@ -1177,7 +1167,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74" s="1">
         <v>44402</v>
@@ -1188,7 +1178,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75" s="1">
         <v>44402</v>
@@ -1199,7 +1189,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76" s="1">
         <v>44402</v>
@@ -1210,18 +1200,18 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77" s="1">
-        <v>44402</v>
+        <v>44398</v>
       </c>
       <c r="C77" s="1">
-        <v>44410</v>
+        <v>44415</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78" s="1">
         <v>44398</v>
@@ -1232,18 +1222,18 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79" s="1">
-        <v>44398</v>
+        <v>44402</v>
       </c>
       <c r="C79" s="1">
-        <v>44415</v>
+        <v>44416</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80" s="1">
         <v>44402</v>
@@ -1254,18 +1244,18 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81" s="1">
-        <v>44402</v>
+        <v>44401</v>
       </c>
       <c r="C81" s="1">
-        <v>44416</v>
+        <v>44415</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82" s="1">
         <v>44401</v>
@@ -1276,18 +1266,18 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83" s="1">
-        <v>44401</v>
+        <v>44402</v>
       </c>
       <c r="C83" s="1">
-        <v>44415</v>
+        <v>44416</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84" s="1">
         <v>44402</v>
@@ -1298,7 +1288,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85" s="1">
         <v>44402</v>
@@ -1309,7 +1299,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86" s="1">
         <v>44402</v>
@@ -1320,7 +1310,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87" s="1">
         <v>44402</v>
@@ -1331,7 +1321,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88" s="1">
         <v>44402</v>
@@ -1342,7 +1332,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89" s="1">
         <v>44402</v>
@@ -1353,7 +1343,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90" s="1">
         <v>44402</v>
@@ -1364,7 +1354,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91" s="1">
         <v>44402</v>
@@ -1375,7 +1365,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92" s="1">
         <v>44402</v>
@@ -1386,7 +1376,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93" s="1">
         <v>44402</v>
@@ -1397,7 +1387,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B94" s="1">
         <v>44402</v>
@@ -1408,18 +1398,18 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B95" s="1">
         <v>44402</v>
       </c>
       <c r="C95" s="1">
-        <v>44416</v>
+        <v>44406</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96" s="1">
         <v>44402</v>
@@ -1430,7 +1420,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B97" s="1">
         <v>44402</v>
@@ -1441,7 +1431,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98" s="1">
         <v>44402</v>
@@ -1452,18 +1442,18 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99" s="1">
-        <v>44402</v>
+        <v>44410</v>
       </c>
       <c r="C99" s="1">
-        <v>44406</v>
+        <v>44415</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B100" s="1">
         <v>44410</v>
@@ -1474,7 +1464,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101" s="1">
         <v>44410</v>
@@ -1485,7 +1475,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B102" s="1">
         <v>44410</v>
@@ -1496,7 +1486,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B103" s="1">
         <v>44410</v>
@@ -1507,7 +1497,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B104" s="1">
         <v>44410</v>
@@ -1518,7 +1508,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B105" s="1">
         <v>44410</v>
@@ -1529,7 +1519,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B106" s="1">
         <v>44410</v>
@@ -1540,7 +1530,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B107" s="1">
         <v>44410</v>
@@ -1551,7 +1541,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B108" s="1">
         <v>44410</v>
@@ -1562,7 +1552,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B109" s="1">
         <v>44410</v>
@@ -1573,7 +1563,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B110" s="1">
         <v>44410</v>
@@ -1584,18 +1574,18 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B111" s="1">
-        <v>44410</v>
+        <v>44406</v>
       </c>
       <c r="C111" s="1">
-        <v>44415</v>
+        <v>44409</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B112" s="1">
         <v>44406</v>
@@ -1606,7 +1596,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B113" s="1">
         <v>44406</v>
@@ -1617,7 +1607,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B114" s="1">
         <v>44406</v>
@@ -1628,18 +1618,18 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B115" s="1">
-        <v>44406</v>
+        <v>44402</v>
       </c>
       <c r="C115" s="1">
-        <v>44409</v>
+        <v>44403</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B116" s="1">
         <v>44402</v>
@@ -1650,18 +1640,18 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B117" s="1">
-        <v>44402</v>
+        <v>44401</v>
       </c>
       <c r="C117" s="1">
-        <v>44403</v>
+        <v>44405</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B118" s="1">
         <v>44401</v>
@@ -1672,7 +1662,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B119" s="1">
         <v>44401</v>
@@ -1683,7 +1673,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B120" s="1">
         <v>44401</v>
@@ -1694,18 +1684,18 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B121" s="1">
-        <v>44401</v>
+        <v>44410</v>
       </c>
       <c r="C121" s="1">
-        <v>44405</v>
+        <v>44416</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B122" s="1">
         <v>44410</v>
@@ -1716,7 +1706,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B123" s="1">
         <v>44410</v>
@@ -1727,7 +1717,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B124" s="1">
         <v>44410</v>
@@ -1738,7 +1728,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B125" s="1">
         <v>44410</v>
@@ -1749,7 +1739,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B126" s="1">
         <v>44410</v>
@@ -1760,7 +1750,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B127" s="1">
         <v>44410</v>
@@ -1771,7 +1761,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B128" s="1">
         <v>44410</v>
@@ -1782,7 +1772,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B129" s="1">
         <v>44410</v>
@@ -1793,7 +1783,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B130" s="1">
         <v>44410</v>
@@ -1804,7 +1794,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B131" s="1">
         <v>44410</v>
@@ -1815,7 +1805,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B132" s="1">
         <v>44410</v>
@@ -1826,18 +1816,18 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B133" s="1">
-        <v>44410</v>
+        <v>44402</v>
       </c>
       <c r="C133" s="1">
-        <v>44416</v>
+        <v>44415</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B134" s="1">
         <v>44402</v>
@@ -1848,7 +1838,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B135" s="1">
         <v>44402</v>
@@ -1859,7 +1849,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B136" s="1">
         <v>44402</v>
@@ -1870,7 +1860,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B137" s="1">
         <v>44402</v>
@@ -1881,7 +1871,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B138" s="1">
         <v>44402</v>
@@ -1892,7 +1882,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B139" s="1">
         <v>44402</v>
@@ -1903,7 +1893,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B140" s="1">
         <v>44402</v>
@@ -1914,7 +1904,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B141" s="1">
         <v>44402</v>
@@ -1925,7 +1915,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B142" s="1">
         <v>44402</v>
@@ -1936,7 +1926,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B143" s="1">
         <v>44402</v>
@@ -1947,7 +1937,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B144" s="1">
         <v>44402</v>
@@ -1958,7 +1948,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B145" s="1">
         <v>44402</v>
@@ -1969,7 +1959,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B146" s="1">
         <v>44402</v>
@@ -1980,18 +1970,18 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B147" s="1">
-        <v>44402</v>
+        <v>44401</v>
       </c>
       <c r="C147" s="1">
-        <v>44415</v>
+        <v>44409</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B148" s="1">
         <v>44401</v>
@@ -2002,7 +1992,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B149" s="1">
         <v>44401</v>
@@ -2013,7 +2003,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B150" s="1">
         <v>44401</v>
@@ -2024,7 +2014,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B151" s="1">
         <v>44401</v>
@@ -2035,7 +2025,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B152" s="1">
         <v>44401</v>
@@ -2046,7 +2036,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B153" s="1">
         <v>44401</v>
@@ -2057,7 +2047,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B154" s="1">
         <v>44401</v>
@@ -2068,7 +2058,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B155" s="1">
         <v>44401</v>
@@ -2079,7 +2069,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B156" s="1">
         <v>44401</v>
@@ -2090,7 +2080,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B157" s="1">
         <v>44401</v>
@@ -2101,7 +2091,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B158" s="1">
         <v>44401</v>
@@ -2112,18 +2102,18 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B159" s="1">
-        <v>44401</v>
+        <v>44398</v>
       </c>
       <c r="C159" s="1">
-        <v>44409</v>
+        <v>44415</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B160" s="1">
         <v>44398</v>
@@ -2134,10 +2124,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B161" s="1">
-        <v>44398</v>
+        <v>44406</v>
       </c>
       <c r="C161" s="1">
         <v>44415</v>
@@ -2145,7 +2135,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B162" s="1">
         <v>44406</v>
@@ -2156,18 +2146,18 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B163" s="1">
-        <v>44406</v>
+        <v>44401</v>
       </c>
       <c r="C163" s="1">
-        <v>44415</v>
+        <v>44416</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B164" s="1">
         <v>44401</v>
@@ -2178,18 +2168,18 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B165" s="1">
         <v>44401</v>
       </c>
       <c r="C165" s="1">
-        <v>44416</v>
+        <v>44414</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B166" s="1">
         <v>44401</v>
@@ -2200,18 +2190,18 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B167" s="1">
         <v>44401</v>
       </c>
       <c r="C167" s="1">
-        <v>44414</v>
+        <v>44408</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B168" s="1">
         <v>44401</v>
@@ -2222,7 +2212,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B169" s="1">
         <v>44401</v>
@@ -2233,7 +2223,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B170" s="1">
         <v>44401</v>
@@ -2244,7 +2234,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B171" s="1">
         <v>44401</v>
@@ -2255,7 +2245,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B172" s="1">
         <v>44401</v>
@@ -2266,7 +2256,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B173" s="1">
         <v>44401</v>
@@ -2277,7 +2267,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B174" s="1">
         <v>44401</v>
@@ -2288,7 +2278,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B175" s="1">
         <v>44401</v>
@@ -2299,7 +2289,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B176" s="1">
         <v>44401</v>
@@ -2310,7 +2300,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B177" s="1">
         <v>44401</v>
@@ -2321,7 +2311,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B178" s="1">
         <v>44401</v>
@@ -2332,7 +2322,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B179" s="1">
         <v>44401</v>
@@ -2343,7 +2333,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B180" s="1">
         <v>44401</v>
@@ -2354,7 +2344,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B181" s="1">
         <v>44401</v>
@@ -2365,18 +2355,18 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B182" s="1">
-        <v>44401</v>
+        <v>44413</v>
       </c>
       <c r="C182" s="1">
-        <v>44408</v>
+        <v>44415</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B183" s="1">
         <v>44413</v>
@@ -2387,7 +2377,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B184" s="1">
         <v>44413</v>
@@ -2398,7 +2388,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B185" s="1">
         <v>44413</v>
@@ -2409,7 +2399,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B186" s="1">
         <v>44413</v>
@@ -2420,7 +2410,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B187" s="1">
         <v>44413</v>
@@ -2431,7 +2421,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B188" s="1">
         <v>44413</v>
@@ -2442,7 +2432,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B189" s="1">
         <v>44413</v>
@@ -2453,18 +2443,18 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B190" s="1">
+        <v>44412</v>
+      </c>
+      <c r="C190" s="1">
         <v>44413</v>
-      </c>
-      <c r="C190" s="1">
-        <v>44415</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B191" s="1">
         <v>44412</v>
@@ -2475,18 +2465,18 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B192" s="1">
-        <v>44412</v>
+        <v>44413</v>
       </c>
       <c r="C192" s="1">
-        <v>44413</v>
+        <v>44415</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B193" s="1">
         <v>44413</v>
@@ -2497,18 +2487,18 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B194" s="1">
-        <v>44413</v>
+        <v>44414</v>
       </c>
       <c r="C194" s="1">
-        <v>44415</v>
+        <v>44416</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B195" s="1">
         <v>44414</v>
@@ -2519,7 +2509,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B196" s="1">
         <v>44414</v>
@@ -2530,18 +2520,18 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B197" s="1">
-        <v>44414</v>
+        <v>44400</v>
       </c>
       <c r="C197" s="1">
-        <v>44416</v>
+        <v>44407</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B198" s="1">
         <v>44400</v>
@@ -2552,7 +2542,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B199" s="1">
         <v>44400</v>
@@ -2563,7 +2553,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B200" s="1">
         <v>44400</v>
@@ -2574,7 +2564,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B201" s="1">
         <v>44400</v>
@@ -2585,7 +2575,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B202" s="1">
         <v>44400</v>
@@ -2596,7 +2586,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B203" s="1">
         <v>44400</v>
@@ -2607,7 +2597,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B204" s="1">
         <v>44400</v>
@@ -2618,7 +2608,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B205" s="1">
         <v>44400</v>
@@ -2629,7 +2619,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B206" s="1">
         <v>44400</v>
@@ -2640,7 +2630,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B207" s="1">
         <v>44400</v>
@@ -2651,7 +2641,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B208" s="1">
         <v>44400</v>
@@ -2662,7 +2652,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B209" s="1">
         <v>44400</v>
@@ -2673,7 +2663,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B210" s="1">
         <v>44400</v>
@@ -2684,18 +2674,18 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B211" s="1">
-        <v>44400</v>
+        <v>44403</v>
       </c>
       <c r="C211" s="1">
-        <v>44407</v>
+        <v>44408</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B212" s="1">
         <v>44403</v>
@@ -2706,18 +2696,18 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B213" s="1">
-        <v>44403</v>
+        <v>44402</v>
       </c>
       <c r="C213" s="1">
-        <v>44408</v>
+        <v>44412</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B214" s="1">
         <v>44402</v>
@@ -2728,7 +2718,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B215" s="1">
         <v>44402</v>
@@ -2739,7 +2729,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B216" s="1">
         <v>44402</v>
@@ -2750,7 +2740,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B217" s="1">
         <v>44402</v>
@@ -2761,7 +2751,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B218" s="1">
         <v>44402</v>
@@ -2772,7 +2762,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B219" s="1">
         <v>44402</v>
@@ -2783,7 +2773,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B220" s="1">
         <v>44402</v>
@@ -2794,7 +2784,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B221" s="1">
         <v>44402</v>
@@ -2805,7 +2795,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B222" s="1">
         <v>44402</v>
@@ -2816,18 +2806,18 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B223" s="1">
-        <v>44402</v>
+        <v>44401</v>
       </c>
       <c r="C223" s="1">
-        <v>44412</v>
+        <v>44410</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B224" s="1">
         <v>44401</v>
@@ -2838,7 +2828,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B225" s="1">
         <v>44401</v>
@@ -2849,7 +2839,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B226" s="1">
         <v>44401</v>
@@ -2860,7 +2850,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B227" s="1">
         <v>44401</v>
@@ -2871,7 +2861,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B228" s="1">
         <v>44401</v>
@@ -2882,7 +2872,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B229" s="1">
         <v>44401</v>
@@ -2893,7 +2883,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B230" s="1">
         <v>44401</v>
@@ -2904,7 +2894,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B231" s="1">
         <v>44401</v>
@@ -2915,7 +2905,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B232" s="1">
         <v>44401</v>
@@ -2926,7 +2916,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B233" s="1">
         <v>44401</v>
@@ -2937,7 +2927,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B234" s="1">
         <v>44401</v>
@@ -2948,7 +2938,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B235" s="1">
         <v>44401</v>
@@ -2959,7 +2949,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B236" s="1">
         <v>44401</v>
@@ -2970,7 +2960,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B237" s="1">
         <v>44401</v>
@@ -2981,18 +2971,18 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B238" s="1">
-        <v>44401</v>
+        <v>44402</v>
       </c>
       <c r="C238" s="1">
-        <v>44410</v>
+        <v>44413</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B239" s="1">
         <v>44402</v>
@@ -3003,7 +2993,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B240" s="1">
         <v>44402</v>
@@ -3014,7 +3004,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B241" s="1">
         <v>44402</v>
@@ -3025,18 +3015,18 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B242" s="1">
-        <v>44402</v>
+        <v>44411</v>
       </c>
       <c r="C242" s="1">
-        <v>44413</v>
+        <v>44414</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B243" s="1">
         <v>44411</v>
@@ -3047,29 +3037,29 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B244" s="1">
-        <v>44411</v>
+        <v>44402</v>
       </c>
       <c r="C244" s="1">
-        <v>44414</v>
+        <v>44435</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B245" s="1">
-        <v>44402</v>
+        <v>44401</v>
       </c>
       <c r="C245" s="1">
-        <v>44435</v>
+        <v>44409</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B246" s="1">
         <v>44401</v>
@@ -3080,7 +3070,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B247" s="1">
         <v>44401</v>
@@ -3091,7 +3081,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B248" s="1">
         <v>44401</v>
@@ -3102,7 +3092,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B249" s="1">
         <v>44401</v>
@@ -3113,7 +3103,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B250" s="1">
         <v>44401</v>
@@ -3124,7 +3114,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B251" s="1">
         <v>44401</v>
@@ -3135,7 +3125,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B252" s="1">
         <v>44401</v>
@@ -3146,7 +3136,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B253" s="1">
         <v>44401</v>
@@ -3157,7 +3147,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B254" s="1">
         <v>44401</v>
@@ -3168,7 +3158,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B255" s="1">
         <v>44401</v>
@@ -3179,7 +3169,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B256" s="1">
         <v>44401</v>
@@ -3190,7 +3180,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B257" s="1">
         <v>44401</v>
@@ -3201,7 +3191,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B258" s="1">
         <v>44401</v>
@@ -3212,7 +3202,7 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B259" s="1">
         <v>44401</v>
@@ -3223,7 +3213,7 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B260" s="1">
         <v>44401</v>
@@ -3234,7 +3224,7 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B261" s="1">
         <v>44401</v>
@@ -3245,7 +3235,7 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B262" s="1">
         <v>44401</v>
@@ -3256,7 +3246,7 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B263" s="1">
         <v>44401</v>
@@ -3267,7 +3257,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B264" s="1">
         <v>44401</v>
@@ -3278,7 +3268,7 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B265" s="1">
         <v>44401</v>
@@ -3289,7 +3279,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B266" s="1">
         <v>44401</v>
@@ -3300,7 +3290,7 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B267" s="1">
         <v>44401</v>
@@ -3311,7 +3301,7 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B268" s="1">
         <v>44401</v>
@@ -3322,7 +3312,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B269" s="1">
         <v>44401</v>
@@ -3333,7 +3323,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B270" s="1">
         <v>44401</v>
@@ -3344,7 +3334,7 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B271" s="1">
         <v>44401</v>
@@ -3355,7 +3345,7 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B272" s="1">
         <v>44401</v>
@@ -3366,7 +3356,7 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B273" s="1">
         <v>44401</v>
@@ -3377,7 +3367,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B274" s="1">
         <v>44401</v>
@@ -3388,7 +3378,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B275" s="1">
         <v>44401</v>
@@ -3399,7 +3389,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B276" s="1">
         <v>44401</v>
@@ -3410,7 +3400,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B277" s="1">
         <v>44401</v>
@@ -3421,7 +3411,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B278" s="1">
         <v>44401</v>
@@ -3432,18 +3422,18 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B279" s="1">
         <v>44401</v>
       </c>
       <c r="C279" s="1">
-        <v>44409</v>
+        <v>44414</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B280" s="1">
         <v>44401</v>
@@ -3454,7 +3444,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B281" s="1">
         <v>44401</v>
@@ -3465,7 +3455,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B282" s="1">
         <v>44401</v>
@@ -3476,7 +3466,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B283" s="1">
         <v>44401</v>
@@ -3487,18 +3477,18 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B284" s="1">
         <v>44401</v>
       </c>
       <c r="C284" s="1">
-        <v>44414</v>
+        <v>44404</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B285" s="1">
         <v>44401</v>
@@ -3509,7 +3499,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B286" s="1">
         <v>44401</v>
@@ -3520,7 +3510,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B287" s="1">
         <v>44401</v>
@@ -3531,7 +3521,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B288" s="1">
         <v>44401</v>
@@ -3542,7 +3532,7 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B289" s="1">
         <v>44401</v>
@@ -3553,7 +3543,7 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B290" s="1">
         <v>44401</v>
@@ -3564,7 +3554,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B291" s="1">
         <v>44401</v>
@@ -3575,18 +3565,18 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B292" s="1">
         <v>44401</v>
       </c>
       <c r="C292" s="1">
-        <v>44404</v>
+        <v>44409</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B293" s="1">
         <v>44401</v>
@@ -3597,7 +3587,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B294" s="1">
         <v>44401</v>
@@ -3608,7 +3598,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B295" s="1">
         <v>44401</v>
@@ -3619,7 +3609,7 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B296" s="1">
         <v>44401</v>
@@ -3630,18 +3620,18 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B297" s="1">
-        <v>44401</v>
+        <v>44407</v>
       </c>
       <c r="C297" s="1">
-        <v>44409</v>
+        <v>44408</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B298" s="1">
         <v>44407</v>
@@ -3652,10 +3642,10 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B299" s="1">
-        <v>44407</v>
+        <v>44403</v>
       </c>
       <c r="C299" s="1">
         <v>44408</v>
@@ -3663,7 +3653,7 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B300" s="1">
         <v>44403</v>
@@ -3674,7 +3664,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B301" s="1">
         <v>44403</v>
@@ -3685,18 +3675,18 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B302" s="1">
-        <v>44403</v>
+        <v>44402</v>
       </c>
       <c r="C302" s="1">
-        <v>44408</v>
+        <v>44416</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B303" s="1">
         <v>44402</v>
@@ -3707,10 +3697,10 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B304" s="1">
-        <v>44402</v>
+        <v>44401</v>
       </c>
       <c r="C304" s="1">
         <v>44416</v>
@@ -3718,7 +3708,7 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B305" s="1">
         <v>44401</v>
@@ -3729,18 +3719,18 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B306" s="1">
         <v>44401</v>
       </c>
       <c r="C306" s="1">
-        <v>44416</v>
+        <v>44412</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B307" s="1">
         <v>44401</v>
@@ -3751,7 +3741,7 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B308" s="1">
         <v>44401</v>
@@ -3762,7 +3752,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B309" s="1">
         <v>44401</v>
@@ -3773,7 +3763,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B310" s="1">
         <v>44401</v>
@@ -3784,7 +3774,7 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B311" s="1">
         <v>44401</v>
@@ -3795,7 +3785,7 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B312" s="1">
         <v>44401</v>
@@ -3806,7 +3796,7 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B313" s="1">
         <v>44401</v>
@@ -3817,7 +3807,7 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B314" s="1">
         <v>44401</v>
@@ -3828,7 +3818,7 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B315" s="1">
         <v>44401</v>
@@ -3839,7 +3829,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B316" s="1">
         <v>44401</v>
@@ -3850,7 +3840,7 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B317" s="1">
         <v>44401</v>
@@ -3861,7 +3851,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B318" s="1">
         <v>44401</v>
@@ -3872,18 +3862,18 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B319" s="1">
-        <v>44401</v>
+        <v>44409</v>
       </c>
       <c r="C319" s="1">
-        <v>44412</v>
+        <v>44415</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B320" s="1">
         <v>44409</v>
@@ -3894,7 +3884,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B321" s="1">
         <v>44409</v>
@@ -3905,7 +3895,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B322" s="1">
         <v>44409</v>
@@ -3916,7 +3906,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B323" s="1">
         <v>44409</v>
@@ -3927,7 +3917,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B324" s="1">
         <v>44409</v>
@@ -3938,7 +3928,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B325" s="1">
         <v>44409</v>
@@ -3949,7 +3939,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B326" s="1">
         <v>44409</v>
@@ -3960,7 +3950,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B327" s="1">
         <v>44409</v>
@@ -3971,7 +3961,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B328" s="1">
         <v>44409</v>
@@ -3982,7 +3972,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B329" s="1">
         <v>44409</v>
@@ -3993,7 +3983,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B330" s="1">
         <v>44409</v>
@@ -4004,7 +3994,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B331" s="1">
         <v>44409</v>
@@ -4015,7 +4005,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B332" s="1">
         <v>44409</v>
@@ -4026,7 +4016,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B333" s="1">
         <v>44409</v>
@@ -4037,7 +4027,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B334" s="1">
         <v>44409</v>
@@ -4048,7 +4038,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B335" s="1">
         <v>44409</v>
@@ -4059,23 +4049,12 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B336" s="1">
         <v>44409</v>
       </c>
       <c r="C336" s="1">
-        <v>44415</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A337">
-        <v>336</v>
-      </c>
-      <c r="B337" s="1">
-        <v>44409</v>
-      </c>
-      <c r="C337" s="1">
         <v>44415</v>
       </c>
     </row>
